--- a/Metric Graph.xlsx
+++ b/Metric Graph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YouMi\OneDrive - University of South Wales\2) Creative\4) Publishing\Criteria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsouthwales-my.sharepoint.com/personal/daniel_harris_southwales_ac_uk/Documents/Misc/Documents/Code/Evaluation_Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0833C2-DCB4-4B60-9E6F-B07E40E66ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9E0833C2-DCB4-4B60-9E6F-B07E40E66ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216133EF-1055-4BE2-9729-6845FF731C4D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Shared Surfaces and Spaces: Collaborative Data Visualisation in a Co-located Immersive Environment</t>
   </si>
@@ -229,15 +229,6 @@
   </si>
   <si>
     <t>Melbourne 2100: Dystopian Virtual Reality to provoke civic engagement with climate change</t>
-  </si>
-  <si>
-    <t>An evaluation framework for network security visualizations</t>
-  </si>
-  <si>
-    <t>Popular performance metrics for evaluation of interaction in virtual and augmented reality</t>
-  </si>
-  <si>
-    <t>Virtual Reality : A literature review and metrics based classification</t>
   </si>
   <si>
     <t>Visualization is Better! A Comparative Evaluation</t>
@@ -806,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91170876-B271-423A-8FBB-D370B8D5DAEE}">
-  <dimension ref="B2:BI40"/>
+  <dimension ref="B2:BI37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI40" sqref="B2:BI40"/>
+      <selection activeCell="A29" sqref="A29:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,7 +813,7 @@
   <sheetData>
     <row r="2" spans="2:61" x14ac:dyDescent="0.35">
       <c r="C2" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -856,7 +847,7 @@
       <c r="AG2" s="29"/>
       <c r="AH2" s="30"/>
       <c r="AJ2" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AK2" s="29"/>
       <c r="AL2" s="29"/>
@@ -880,7 +871,7 @@
       <c r="BD2" s="29"/>
       <c r="BE2" s="30"/>
       <c r="BG2" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BH2" s="29"/>
       <c r="BI2" s="30"/>
@@ -891,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>30</v>
@@ -903,7 +894,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>32</v>
@@ -927,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>27</v>
@@ -972,47 +963,47 @@
         <v>13</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AK3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="AL3" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AM3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="AN3" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AO3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS3" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="AP3" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ3" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR3" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS3" s="25" t="s">
-        <v>91</v>
       </c>
       <c r="AT3" s="25" t="s">
         <v>3</v>
@@ -1045,10 +1036,10 @@
         <v>22</v>
       </c>
       <c r="BD3" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BE3" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="BF3" s="26"/>
       <c r="BG3" s="25" t="s">
@@ -2617,19 +2608,19 @@
       <c r="B29" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2649,8 +2640,8 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
@@ -2658,7 +2649,7 @@
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
+      <c r="AS29" s="4"/>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
@@ -2671,36 +2662,36 @@
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
-      <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
       <c r="BI29" s="1"/>
     </row>
     <row r="30" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="O30" s="4"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
+      <c r="V30" s="4"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
+      <c r="X30" s="4"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -2711,14 +2702,14 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
       <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
+      <c r="AN30" s="4"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
+      <c r="AQ30" s="4"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
@@ -2733,22 +2724,22 @@
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="4"/>
+      <c r="BG30" s="4"/>
+      <c r="BH30" s="4"/>
+      <c r="BI30" s="1"/>
     </row>
     <row r="31" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B31" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2773,16 +2764,16 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
       <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
+      <c r="AN31" s="4"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
@@ -2793,31 +2784,31 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
-      <c r="BI31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BG31" s="4"/>
+      <c r="BH31" s="4"/>
+      <c r="BI31" s="1"/>
     </row>
     <row r="32" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B32" s="24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="4"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="4"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -2832,19 +2823,19 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
+      <c r="AF32" s="4"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
+      <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
-      <c r="AS32" s="4"/>
+      <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
@@ -2863,30 +2854,30 @@
     </row>
     <row r="33" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B33" s="24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="4"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="4"/>
+      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="4"/>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
@@ -2898,13 +2889,13 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
-      <c r="AN33" s="4"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="4"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
@@ -2920,27 +2911,27 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BG33" s="4"/>
-      <c r="BH33" s="4"/>
+      <c r="BH33" s="1"/>
       <c r="BI33" s="1"/>
     </row>
     <row r="34" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B34" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2961,14 +2952,14 @@
       <c r="AH34" s="1"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
+      <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="4"/>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
-      <c r="AQ34" s="4"/>
+      <c r="AQ34" s="1"/>
       <c r="AR34" s="4"/>
-      <c r="AS34" s="4"/>
+      <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
@@ -2979,37 +2970,37 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
-      <c r="BD34" s="4"/>
-      <c r="BE34" s="4"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
       <c r="BG34" s="4"/>
-      <c r="BH34" s="4"/>
+      <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
     </row>
     <row r="35" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B35" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="4"/>
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
+      <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
+      <c r="W35" s="4"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -3018,17 +3009,17 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
       <c r="AJ35" s="4"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
       <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
+      <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
-      <c r="AQ35" s="1"/>
+      <c r="AQ35" s="4"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
@@ -3044,27 +3035,27 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BG35" s="4"/>
-      <c r="BH35" s="4"/>
+      <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
     </row>
     <row r="36" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B36" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="4"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="4"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -3084,12 +3075,12 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AJ36" s="4"/>
-      <c r="AK36" s="1"/>
+      <c r="AK36" s="4"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
@@ -3106,32 +3097,32 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
       <c r="BG36" s="4"/>
-      <c r="BH36" s="1"/>
+      <c r="BH36" s="4"/>
       <c r="BI36" s="1"/>
     </row>
     <row r="37" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B37" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="1"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
+      <c r="U37" s="4"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -3145,15 +3136,15 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
-      <c r="AN37" s="4"/>
+      <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
-      <c r="AR37" s="4"/>
+      <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
@@ -3168,194 +3159,8 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BG37" s="4"/>
-      <c r="BH37" s="1"/>
+      <c r="BH37" s="4"/>
       <c r="BI37" s="1"/>
-    </row>
-    <row r="38" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B38" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="4"/>
-      <c r="AQ38" s="4"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BG38" s="4"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
-    </row>
-    <row r="39" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B39" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
-      <c r="BC39" s="1"/>
-      <c r="BD39" s="1"/>
-      <c r="BE39" s="1"/>
-      <c r="BG39" s="4"/>
-      <c r="BH39" s="4"/>
-      <c r="BI39" s="1"/>
-    </row>
-    <row r="40" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B40" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
-      <c r="AZ40" s="1"/>
-      <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
-      <c r="BC40" s="1"/>
-      <c r="BD40" s="1"/>
-      <c r="BE40" s="1"/>
-      <c r="BG40" s="4"/>
-      <c r="BH40" s="4"/>
-      <c r="BI40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3368,21 +3173,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC3D5A56AF9FD3438C43F319FCFDE2DC" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="964ba2a9cf15dd8b216821cf218a0037">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="28506e34-71d9-4c0b-96e6-6141a7ebebc4" xmlns:ns4="52ca37bf-416a-447f-bbd0-493d9f907224" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a850e3db238210a5957083a267be6f15" ns3:_="" ns4:_="">
     <xsd:import namespace="28506e34-71d9-4c0b-96e6-6141a7ebebc4"/>
@@ -3605,32 +3395,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B445220-70CD-4A1F-A6A9-D4A52D47651E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="28506e34-71d9-4c0b-96e6-6141a7ebebc4"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="52ca37bf-416a-447f-bbd0-493d9f907224"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160936A-CD33-4A15-9EAC-F463B655473B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05EFA89-79F4-4EAF-A475-D67EDECE30E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3647,4 +3427,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160936A-CD33-4A15-9EAC-F463B655473B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B445220-70CD-4A1F-A6A9-D4A52D47651E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="28506e34-71d9-4c0b-96e6-6141a7ebebc4"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="52ca37bf-416a-447f-bbd0-493d9f907224"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Metric Graph.xlsx
+++ b/Metric Graph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsouthwales-my.sharepoint.com/personal/daniel_harris_southwales_ac_uk/Documents/Misc/Documents/Code/Evaluation_Metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YouMi\OneDrive - University of South Wales\2) Creative\4) Publishing\Criteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9E0833C2-DCB4-4B60-9E6F-B07E40E66ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216133EF-1055-4BE2-9729-6845FF731C4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390C005D-B2E2-4C58-9066-E99EA4A1664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Intention to use system</t>
   </si>
   <si>
-    <t>Perceived Learning Effectiveness</t>
-  </si>
-  <si>
     <t>Problem–solving capability</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>True Negatives</t>
   </si>
   <si>
-    <t>Score of pre task test</t>
-  </si>
-  <si>
     <t>Information visualization metrics and methods for cyber security evaluation</t>
   </si>
   <si>
@@ -316,6 +310,12 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>Learnability</t>
+  </si>
+  <si>
+    <t>Pre task test</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
   <dimension ref="B2:BI37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD31"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="2" spans="2:61" x14ac:dyDescent="0.35">
       <c r="C2" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -847,7 +847,7 @@
       <c r="AG2" s="29"/>
       <c r="AH2" s="30"/>
       <c r="AJ2" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="29"/>
       <c r="AL2" s="29"/>
@@ -871,7 +871,7 @@
       <c r="BD2" s="29"/>
       <c r="BE2" s="30"/>
       <c r="BG2" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BH2" s="29"/>
       <c r="BI2" s="30"/>
@@ -882,28 +882,28 @@
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>31</v>
@@ -912,98 +912,98 @@
         <v>8</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="U3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="W3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="Z3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AB3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="AD3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AK3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="AL3" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="AN3" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AO3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR3" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AP3" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ3" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR3" s="25" t="s">
-        <v>87</v>
-      </c>
       <c r="AS3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AT3" s="25" t="s">
         <v>3</v>
@@ -1036,10 +1036,10 @@
         <v>22</v>
       </c>
       <c r="BD3" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BE3" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BF3" s="26"/>
       <c r="BG3" s="25" t="s">
@@ -1550,7 +1550,7 @@
     </row>
     <row r="12" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="13" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="14" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="15" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="4"/>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="16" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="17" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="4"/>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="18" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="3"/>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="19" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="5"/>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="20" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="21" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="3"/>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="22" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B22" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="23" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B23" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="5"/>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="24" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="25" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B25" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="1"/>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="26" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B26" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1"/>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="27" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B27" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="28" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B28" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="1"/>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="29" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B29" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="30" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B30" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="31" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B31" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="32" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B32" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="1"/>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="33" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B33" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="34" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B34" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="35" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B35" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="36" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B36" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="37" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B37" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3396,18 +3396,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3430,14 +3430,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160936A-CD33-4A15-9EAC-F463B655473B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B445220-70CD-4A1F-A6A9-D4A52D47651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3452,4 +3444,12 @@
     <ds:schemaRef ds:uri="52ca37bf-416a-447f-bbd0-493d9f907224"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160936A-CD33-4A15-9EAC-F463B655473B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Metric Graph.xlsx
+++ b/Metric Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YouMi\OneDrive - University of South Wales\2) Creative\4) Publishing\Criteria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YouMi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390C005D-B2E2-4C58-9066-E99EA4A1664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5AAC2-0C71-4DC4-9497-549733E14A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metric Graph" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Shared Surfaces and Spaces: Collaborative Data Visualisation in a Co-located Immersive Environment</t>
   </si>
@@ -81,9 +81,6 @@
     <t>An Evaluation of the Effectiveness of Virtual Reality in Air Traffic Control</t>
   </si>
   <si>
-    <t>Questionnaire</t>
-  </si>
-  <si>
     <t>Virtual Reality</t>
   </si>
   <si>
@@ -108,12 +105,6 @@
     <t>Time looking at objects</t>
   </si>
   <si>
-    <t>Thinking aloud</t>
-  </si>
-  <si>
-    <t>Differential emotion</t>
-  </si>
-  <si>
     <t>Gaze change</t>
   </si>
   <si>
@@ -123,12 +114,6 @@
     <t>Response time</t>
   </si>
   <si>
-    <t>User Experience Questionnaire</t>
-  </si>
-  <si>
-    <t>Interview</t>
-  </si>
-  <si>
     <t>Intention to use system</t>
   </si>
   <si>
@@ -297,25 +282,19 @@
     <t>Insights discovered</t>
   </si>
   <si>
-    <t>Post task test</t>
-  </si>
-  <si>
     <t>False positives</t>
   </si>
   <si>
+    <t>Observational Metrics</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Learnability</t>
+  </si>
+  <si>
     <t>Non-Observational Metrics</t>
-  </si>
-  <si>
-    <t>Observational Metrics</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Learnability</t>
-  </si>
-  <si>
-    <t>Pre task test</t>
   </si>
 </sst>
 </file>
@@ -441,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -455,26 +434,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,6 +470,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -797,299 +767,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91170876-B271-423A-8FBB-D370B8D5DAEE}">
-  <dimension ref="B2:BI37"/>
+  <dimension ref="A2:BB37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="BD8" sqref="BD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="115.90625" customWidth="1"/>
-    <col min="3" max="34" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="57" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="50" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="C2" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="30"/>
-      <c r="AJ2" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
-      <c r="BD2" s="29"/>
-      <c r="BE2" s="30"/>
-      <c r="BG2" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH2" s="29"/>
-      <c r="BI2" s="30"/>
-    </row>
-    <row r="3" spans="2:61" ht="172" x14ac:dyDescent="0.35">
-      <c r="B3" s="12"/>
-      <c r="C3" s="11" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="C2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="27"/>
+      <c r="AC2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="27"/>
+      <c r="AZ2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
+    </row>
+    <row r="3" spans="1:54" ht="172" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="C3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="AN3" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO3" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP3" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR3" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS3" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW3" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC3" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE3" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="BI3" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="7"/>
+      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="1"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
+      <c r="AK4" s="3"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="2"/>
@@ -1098,245 +1043,229 @@
       <c r="AQ4" s="2"/>
       <c r="AR4" s="3"/>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="3"/>
+      <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="4"/>
-    </row>
-    <row r="5" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="4"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="7"/>
+      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="1"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
       <c r="AH5" s="1"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
       <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="1"/>
-    </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="1"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="8"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="7"/>
+      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="8"/>
+      <c r="AA6" s="1"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="4"/>
-    </row>
-    <row r="7" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B7" s="20" t="s">
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="7"/>
+      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AJ7" s="3"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="1"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
+      <c r="AL7" s="3"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="3"/>
+      <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-    </row>
-    <row r="8" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="7"/>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AJ8" s="5"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="1"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
@@ -1351,56 +1280,52 @@
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="4"/>
-    </row>
-    <row r="9" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="4"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="1"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
@@ -1413,118 +1338,110 @@
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BG9" s="5"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="4"/>
-    </row>
-    <row r="10" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="4"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="7"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AJ10" s="5"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="1"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
+      <c r="AO10" s="3"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
-      <c r="AV10" s="3"/>
+      <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="4"/>
-    </row>
-    <row r="11" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="4"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="7"/>
+      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="1"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
@@ -1537,55 +1454,51 @@
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="4"/>
-    </row>
-    <row r="12" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="7"/>
+      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="1"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="2"/>
@@ -1594,58 +1507,54 @@
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="3"/>
+      <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
-      <c r="AY12" s="2"/>
-      <c r="AZ12" s="2"/>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-    </row>
-    <row r="13" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="7"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="1"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
@@ -1661,53 +1570,49 @@
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-    </row>
-    <row r="14" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="3"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="1"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -1723,53 +1628,49 @@
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-    </row>
-    <row r="15" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B15" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="7"/>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="1"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
@@ -1785,53 +1686,49 @@
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="4"/>
-    </row>
-    <row r="16" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="4"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="7"/>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
+      <c r="X16" s="4"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="1"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
@@ -1847,53 +1744,49 @@
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
-      <c r="AY16" s="2"/>
-      <c r="AZ16" s="2"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-      <c r="BG16" s="5"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="4"/>
-    </row>
-    <row r="17" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="4"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="4"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="1"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
@@ -1909,119 +1802,111 @@
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-      <c r="BG17" s="5"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="4"/>
-    </row>
-    <row r="18" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="4"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="4"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="1"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="3"/>
+      <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="1"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
-      <c r="AM18" s="3"/>
+      <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
-      <c r="AT18" s="5"/>
+      <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
-      <c r="BE18" s="2"/>
-      <c r="BG18" s="5"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="4"/>
-    </row>
-    <row r="19" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="4"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="7"/>
+      <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AJ19" s="3"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="1"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -2033,55 +1918,51 @@
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BG19" s="5"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="4"/>
-    </row>
-    <row r="20" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="4"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="7"/>
+      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="1"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
@@ -2095,55 +1976,51 @@
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-      <c r="BG20" s="5"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="4"/>
-    </row>
-    <row r="21" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="4"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="7"/>
+      <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="1"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
-      <c r="AK21" s="3"/>
+      <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
@@ -2157,116 +2034,108 @@
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
-      <c r="BG21" s="5"/>
-      <c r="BH21" s="1"/>
-      <c r="BI21" s="4"/>
-    </row>
-    <row r="22" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B22" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="4"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="18"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="16"/>
-      <c r="AV22" s="18"/>
-      <c r="AW22" s="18"/>
-      <c r="AX22" s="18"/>
-      <c r="AY22" s="18"/>
-      <c r="AZ22" s="18"/>
-      <c r="BA22" s="18"/>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="18"/>
-      <c r="BE22" s="18"/>
-      <c r="BG22" s="15"/>
-      <c r="BH22" s="19"/>
-      <c r="BI22" s="17"/>
-    </row>
-    <row r="23" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B23" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="1"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="12"/>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="7"/>
+      <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="13"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
@@ -2282,39 +2151,35 @@
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="4"/>
-    </row>
-    <row r="24" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B24" s="23" t="s">
-        <v>59</v>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="4"/>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="4"/>
+      <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -2323,15 +2188,15 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="8"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
@@ -2345,22 +2210,18 @@
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="4"/>
-      <c r="BI24" s="4"/>
-    </row>
-    <row r="25" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B25" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2385,16 +2246,16 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
+      <c r="AC25" s="4"/>
       <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
+      <c r="AE25" s="4"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AJ25" s="4"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
-      <c r="AL25" s="4"/>
+      <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -2407,39 +2268,35 @@
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
+      <c r="AZ25" s="4"/>
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BG25" s="4"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-    </row>
-    <row r="26" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="4"/>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="4"/>
+      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="4"/>
+      <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -2447,15 +2304,15 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
@@ -2469,31 +2326,27 @@
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
-      <c r="BG26" s="1"/>
-      <c r="BH26" s="1"/>
-      <c r="BI26" s="4"/>
-    </row>
-    <row r="27" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B27" s="23" t="s">
-        <v>62</v>
+      <c r="BB26" s="4"/>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="4"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2509,13 +2362,13 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
@@ -2531,54 +2384,50 @@
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BG27" s="1"/>
-      <c r="BH27" s="4"/>
-      <c r="BI27" s="4"/>
-    </row>
-    <row r="28" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B28" s="24" t="s">
-        <v>63</v>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="1"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
+      <c r="AC28" s="4"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="4"/>
+      <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AJ28" s="4"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -2593,34 +2442,30 @@
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BG28" s="1"/>
-      <c r="BH28" s="4"/>
-      <c r="BI28" s="4"/>
-    </row>
-    <row r="29" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B29" s="24" t="s">
-        <v>64</v>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="4"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="4"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2633,42 +2478,38 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="4"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
-      <c r="AS29" s="4"/>
+      <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
-      <c r="AY29" s="1"/>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="1"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
       <c r="BB29" s="1"/>
-      <c r="BC29" s="1"/>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="4"/>
-      <c r="BI29" s="1"/>
-    </row>
-    <row r="30" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
-        <v>65</v>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2676,40 +2517,40 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="4"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="4"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="R30" s="4"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="4"/>
+      <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="4"/>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AG30" s="4"/>
       <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
       <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
-      <c r="AN30" s="4"/>
+      <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
-      <c r="AQ30" s="4"/>
+      <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
@@ -2717,29 +2558,25 @@
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
+      <c r="AZ30" s="4"/>
+      <c r="BA30" s="4"/>
       <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BG30" s="4"/>
-      <c r="BH30" s="4"/>
-      <c r="BI30" s="1"/>
-    </row>
-    <row r="31" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B31" s="24" t="s">
-        <v>67</v>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2757,58 +2594,54 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
+      <c r="AG31" s="4"/>
       <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="1"/>
-      <c r="AN31" s="4"/>
+      <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
       <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="4"/>
-      <c r="BE31" s="4"/>
-      <c r="BG31" s="4"/>
-      <c r="BH31" s="4"/>
-      <c r="BI31" s="1"/>
-    </row>
-    <row r="32" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="4"/>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="4"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
+      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -2818,21 +2651,21 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
+      <c r="AA32" s="4"/>
+      <c r="AC32" s="4"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="4"/>
+      <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AJ32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
@@ -2841,25 +2674,21 @@
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
+      <c r="AZ32" s="4"/>
+      <c r="BA32" s="4"/>
       <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BG32" s="4"/>
-      <c r="BH32" s="4"/>
-      <c r="BI32" s="1"/>
-    </row>
-    <row r="33" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
-        <v>73</v>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2869,7 +2698,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="4"/>
+      <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2881,20 +2710,20 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
+      <c r="AC33" s="4"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AJ33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
@@ -2903,25 +2732,21 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
+      <c r="AZ33" s="4"/>
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
-      <c r="BC33" s="1"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="1"/>
-      <c r="BG33" s="4"/>
-      <c r="BH33" s="1"/>
-      <c r="BI33" s="1"/>
-    </row>
-    <row r="34" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B34" s="24" t="s">
-        <v>74</v>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2930,8 +2755,8 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2943,42 +2768,38 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
+      <c r="AG34" s="4"/>
       <c r="AH34" s="1"/>
-      <c r="AJ34" s="4"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
-      <c r="AN34" s="4"/>
+      <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
-      <c r="AR34" s="4"/>
+      <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
+      <c r="AZ34" s="4"/>
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BG34" s="4"/>
-      <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
-    </row>
-    <row r="35" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B35" s="24" t="s">
-        <v>75</v>
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2994,9 +2815,9 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="4"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="S35" s="4"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -3005,21 +2826,21 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
@@ -3027,32 +2848,28 @@
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
-      <c r="AY35" s="1"/>
-      <c r="AZ35" s="1"/>
+      <c r="AZ35" s="4"/>
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
-      <c r="BC35" s="1"/>
-      <c r="BD35" s="1"/>
-      <c r="BE35" s="1"/>
-      <c r="BG35" s="4"/>
-      <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
-    </row>
-    <row r="36" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B36" s="24" t="s">
-        <v>76</v>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="4"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="4"/>
+      <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3067,15 +2884,15 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
@@ -3089,53 +2906,49 @@
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
       <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BG36" s="4"/>
-      <c r="BH36" s="4"/>
-      <c r="BI36" s="1"/>
-    </row>
-    <row r="37" spans="2:61" x14ac:dyDescent="0.35">
-      <c r="B37" s="24" t="s">
-        <v>77</v>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
@@ -3151,28 +2964,36 @@
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
       <c r="BB37" s="1"/>
-      <c r="BC37" s="1"/>
-      <c r="BD37" s="1"/>
-      <c r="BE37" s="1"/>
-      <c r="BG37" s="4"/>
-      <c r="BH37" s="4"/>
-      <c r="BI37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:AH2"/>
-    <mergeCell ref="AJ2:BE2"/>
-    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="C2:AA2"/>
+    <mergeCell ref="AC2:AX2"/>
+    <mergeCell ref="AZ2:BB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC3D5A56AF9FD3438C43F319FCFDE2DC" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="964ba2a9cf15dd8b216821cf218a0037">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="28506e34-71d9-4c0b-96e6-6141a7ebebc4" xmlns:ns4="52ca37bf-416a-447f-bbd0-493d9f907224" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a850e3db238210a5957083a267be6f15" ns3:_="" ns4:_="">
     <xsd:import namespace="28506e34-71d9-4c0b-96e6-6141a7ebebc4"/>
@@ -3395,36 +3216,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05EFA89-79F4-4EAF-A475-D67EDECE30E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160936A-CD33-4A15-9EAC-F463B655473B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="28506e34-71d9-4c0b-96e6-6141a7ebebc4"/>
-    <ds:schemaRef ds:uri="52ca37bf-416a-447f-bbd0-493d9f907224"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3447,9 +3242,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160936A-CD33-4A15-9EAC-F463B655473B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05EFA89-79F4-4EAF-A475-D67EDECE30E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="28506e34-71d9-4c0b-96e6-6141a7ebebc4"/>
+    <ds:schemaRef ds:uri="52ca37bf-416a-447f-bbd0-493d9f907224"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Metric Graph.xlsx
+++ b/Metric Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YouMi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5AAC2-0C71-4DC4-9497-549733E14A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C7565B-D38F-4ED4-9C36-7C983A98ED6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metric Graph" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Shared Surfaces and Spaces: Collaborative Data Visualisation in a Co-located Immersive Environment</t>
   </si>
@@ -295,6 +295,30 @@
   </si>
   <si>
     <t>Non-Observational Metrics</t>
+  </si>
+  <si>
+    <t>Augmented reality for visualizing security data for cybernetic and cyberphysical systems</t>
+  </si>
+  <si>
+    <t>Dynamic Re-planning for Cyber-Physical Situational Awareness</t>
+  </si>
+  <si>
+    <t>The Potential of Virtual Reality for Computer Science Education -Engaging Students through Immersive Visualizations</t>
+  </si>
+  <si>
+    <t>AOH-Map: A Mind Mapping System for Supporting Collaborative Cyber Security Analysis</t>
+  </si>
+  <si>
+    <t>Collaborative Visual Analysis with Multi-level Information Sharing Using a Wall-Size Display and See-Through HMDs</t>
+  </si>
+  <si>
+    <t>Virtualization of an Aluminum Cans Production Line Using Virtual Reality</t>
+  </si>
+  <si>
+    <t>Enhancing Situational Awareness for Tutors of Cybersecurity Capture the Flag Games</t>
+  </si>
+  <si>
+    <t>Absorption/Flow</t>
   </si>
 </sst>
 </file>
@@ -420,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -430,18 +454,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,354 +787,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91170876-B271-423A-8FBB-D370B8D5DAEE}">
-  <dimension ref="A2:BB37"/>
+  <dimension ref="A2:BD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD8" sqref="BD8"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="115.90625" customWidth="1"/>
-    <col min="3" max="27" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="50" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="28" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="52" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="C2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="27"/>
-      <c r="AC2" s="25" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="24"/>
+      <c r="AD2" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="27"/>
-      <c r="AZ2" s="25" t="s">
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="24"/>
+      <c r="BB2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
-    </row>
-    <row r="3" spans="1:54" ht="172" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-      <c r="C3" s="23" t="s">
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="24"/>
+    </row>
+    <row r="3" spans="1:56" ht="172" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="S3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="X3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="23" t="s">
+      <c r="Y3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Z3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AA3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="24" t="s">
+      <c r="AB3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AE3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AF3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AG3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AG3" s="24" t="s">
+      <c r="AH3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AH3" s="24" t="s">
+      <c r="AI3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AI3" s="24" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AJ3" s="24" t="s">
+      <c r="AK3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="24" t="s">
+      <c r="AL3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AL3" s="24" t="s">
+      <c r="AM3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AN3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="24" t="s">
+      <c r="AO3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AO3" s="24" t="s">
+      <c r="AP3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AP3" s="24" t="s">
+      <c r="AQ3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AQ3" s="24" t="s">
+      <c r="AR3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AR3" s="24" t="s">
+      <c r="AS3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AS3" s="24" t="s">
+      <c r="AT3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AT3" s="24" t="s">
+      <c r="AU3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AU3" s="24" t="s">
+      <c r="AV3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AV3" s="24" t="s">
+      <c r="AW3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AW3" s="24" t="s">
+      <c r="AX3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AX3" s="24" t="s">
+      <c r="AY3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AY3" s="21"/>
-      <c r="AZ3" s="20" t="s">
+      <c r="AZ3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="BA3" s="22" t="s">
+      <c r="BC3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="BB3" s="22" t="s">
+      <c r="BD3" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="V4" s="2"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AC4" s="2"/>
+      <c r="AB4" s="1"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="3"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="3"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
-      <c r="AR4" s="3"/>
+      <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
+      <c r="AU4" s="3"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="4"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="4"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="V5" s="2"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AC5" s="3"/>
+      <c r="AB5" s="1"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="3"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="2"/>
+      <c r="AJ5" s="1"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
       <c r="AV5" s="3"/>
-      <c r="AW5" s="1"/>
+      <c r="AW5" s="3"/>
       <c r="AX5" s="1"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="1"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="1"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
@@ -1126,8 +1158,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1142,15 +1174,15 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AC6" s="4"/>
+      <c r="AB6" s="1"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="1"/>
+      <c r="AE6" s="4"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="2"/>
+      <c r="AG6" s="1"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="1"/>
+      <c r="AK6" s="2"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
@@ -1160,48 +1192,50 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="2"/>
+      <c r="AU6" s="1"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="2"/>
+      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="2"/>
+      <c r="AB7" s="1"/>
+      <c r="AD7" s="3"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1209,56 +1243,58 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="3"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="V8" s="2"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AC8" s="2"/>
+      <c r="AB8" s="1"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -1280,46 +1316,48 @@
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="4"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="4"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="V9" s="2"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="3"/>
+      <c r="AB9" s="1"/>
+      <c r="AD9" s="2"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="2"/>
+      <c r="AF9" s="3"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
@@ -1338,43 +1376,45 @@
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
-      <c r="AZ9" s="5"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="4"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="4"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="V10" s="3"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="3"/>
+      <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AC10" s="2"/>
+      <c r="AB10" s="1"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -1386,56 +1426,58 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="3"/>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
+      <c r="AR10" s="3"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="4"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="4"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="V11" s="2"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AC11" s="3"/>
+      <c r="AB11" s="1"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="2"/>
+      <c r="AF11" s="3"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -1454,54 +1496,56 @@
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="V12" s="2"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AC12" s="3"/>
+      <c r="AB12" s="1"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="2"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="3"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="3"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
@@ -1512,43 +1556,45 @@
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="3"/>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="2"/>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AC13" s="2"/>
+      <c r="AB13" s="1"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -1570,43 +1616,45 @@
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AC14" s="2"/>
+      <c r="AB14" s="1"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -1628,43 +1676,45 @@
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="2"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="2"/>
+      <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AC15" s="2"/>
+      <c r="AB15" s="1"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -1686,43 +1736,45 @@
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="4"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="4"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="2"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="2"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AC16" s="2"/>
+      <c r="AB16" s="1"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -1744,43 +1796,45 @@
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
-      <c r="AZ16" s="5"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="4"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="4"/>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="4"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AC17" s="2"/>
+      <c r="AB17" s="1"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -1802,47 +1856,49 @@
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
-      <c r="AZ17" s="5"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="4"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="4"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
       <c r="T18" s="4"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="4"/>
+      <c r="V18" s="2"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="2"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="4"/>
       <c r="AA18" s="1"/>
-      <c r="AC18" s="3"/>
+      <c r="AB18" s="1"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="2"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="3"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -1860,47 +1916,49 @@
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
-      <c r="AZ18" s="5"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="4"/>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="4"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="V19" s="2"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="2"/>
+      <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="3"/>
+      <c r="AB19" s="1"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="2"/>
+      <c r="AG19" s="3"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
@@ -1918,45 +1976,47 @@
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
-      <c r="AZ19" s="5"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="4"/>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="4"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="2"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="2"/>
+      <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-      <c r="AC20" s="3"/>
+      <c r="AB20" s="1"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="2"/>
+      <c r="AE20" s="3"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -1976,45 +2036,47 @@
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
-      <c r="AZ20" s="5"/>
-      <c r="BA20" s="1"/>
-      <c r="BB20" s="4"/>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="4"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="2"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="2"/>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="2"/>
+      <c r="AB21" s="1"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="3"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -2034,102 +2096,106 @@
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
-      <c r="AZ21" s="5"/>
-      <c r="BA21" s="1"/>
-      <c r="BB21" s="4"/>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="4"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="12"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="13"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
       <c r="AA22" s="1"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
+      <c r="AB22" s="1"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
       <c r="AZ22" s="10"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="12"/>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="9"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="1"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="2"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="2"/>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="2"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="7"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -2151,16 +2217,18 @@
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="4"/>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="4"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="4"/>
@@ -2169,16 +2237,16 @@
       <c r="F24" s="1"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="4"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -2188,9 +2256,9 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
-      <c r="AC24" s="4"/>
+      <c r="AB24" s="1"/>
       <c r="AD24" s="4"/>
-      <c r="AE24" s="1"/>
+      <c r="AE24" s="4"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -2210,15 +2278,17 @@
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="1"/>
@@ -2246,10 +2316,10 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="4"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
@@ -2268,29 +2338,31 @@
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="4"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -2304,9 +2376,9 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AC26" s="4"/>
+      <c r="AB26" s="1"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="1"/>
+      <c r="AE26" s="4"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
@@ -2326,15 +2398,17 @@
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
-      <c r="BA26" s="1"/>
-      <c r="BB26" s="4"/>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="4"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="1"/>
@@ -2343,8 +2417,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2362,7 +2436,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AC27" s="1"/>
+      <c r="AB27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
@@ -2384,15 +2458,17 @@
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="4"/>
@@ -2400,28 +2476,28 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="1"/>
+      <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="1"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="4"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
@@ -2442,26 +2518,28 @@
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
-      <c r="BA28" s="4"/>
-      <c r="BB28" s="4"/>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2478,17 +2556,17 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-      <c r="AC29" s="4"/>
+      <c r="AB29" s="1"/>
       <c r="AD29" s="4"/>
-      <c r="AE29" s="1"/>
+      <c r="AE29" s="4"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="4"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
@@ -2500,33 +2578,35 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
-      <c r="AZ29" s="4"/>
-      <c r="BA29" s="4"/>
-      <c r="BB29" s="1"/>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="1"/>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="4"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="4"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="4"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="4"/>
+      <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -2536,15 +2616,15 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-      <c r="AC30" s="4"/>
+      <c r="AB30" s="1"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="1"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="4"/>
       <c r="AI30" s="1"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="4"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
@@ -2558,22 +2638,24 @@
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
-      <c r="AZ30" s="4"/>
-      <c r="BA30" s="4"/>
-      <c r="BB30" s="1"/>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="1"/>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2594,17 +2676,17 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
-      <c r="AC31" s="4"/>
+      <c r="AB31" s="1"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="1"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="4"/>
       <c r="AI31" s="1"/>
-      <c r="AJ31" s="4"/>
+      <c r="AJ31" s="1"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="1"/>
+      <c r="AM31" s="4"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
@@ -2614,31 +2696,33 @@
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
-      <c r="AW31" s="4"/>
+      <c r="AW31" s="1"/>
       <c r="AX31" s="4"/>
-      <c r="AZ31" s="4"/>
-      <c r="BA31" s="4"/>
-      <c r="BB31" s="1"/>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="1"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="1"/>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="4"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2652,14 +2736,14 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AD32" s="4"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="4"/>
+      <c r="AH32" s="1"/>
       <c r="AI32" s="4"/>
-      <c r="AJ32" s="1"/>
+      <c r="AJ32" s="4"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
@@ -2674,15 +2758,17 @@
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
-      <c r="AZ32" s="4"/>
-      <c r="BA32" s="4"/>
-      <c r="BB32" s="1"/>
-    </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="1"/>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="4"/>
@@ -2710,14 +2796,14 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AD33" s="4"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="4"/>
+      <c r="AH33" s="1"/>
       <c r="AI33" s="4"/>
-      <c r="AJ33" s="1"/>
+      <c r="AJ33" s="4"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
@@ -2732,15 +2818,17 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
-      <c r="AZ33" s="4"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="1"/>
@@ -2768,16 +2856,16 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
-      <c r="AC34" s="4"/>
+      <c r="AB34" s="1"/>
       <c r="AD34" s="4"/>
-      <c r="AE34" s="1"/>
+      <c r="AE34" s="4"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="4"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="4"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -2790,15 +2878,17 @@
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
-      <c r="AZ34" s="4"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-    </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="1"/>
@@ -2819,22 +2909,22 @@
       <c r="R35" s="1"/>
       <c r="S35" s="4"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
+      <c r="U35" s="4"/>
       <c r="V35" s="1"/>
-      <c r="W35" s="4"/>
+      <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-      <c r="AC35" s="4"/>
+      <c r="AB35" s="1"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="1"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
-      <c r="AK35" s="1"/>
+      <c r="AK35" s="4"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
@@ -2848,26 +2938,28 @@
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
-      <c r="AZ35" s="4"/>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
-    </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2884,9 +2976,9 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
-      <c r="AC36" s="4"/>
+      <c r="AB36" s="1"/>
       <c r="AD36" s="4"/>
-      <c r="AE36" s="1"/>
+      <c r="AE36" s="4"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -2906,26 +2998,28 @@
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="1"/>
-    </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="1"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="4"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2942,7 +3036,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
-      <c r="AC37" s="1"/>
+      <c r="AB37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
@@ -2964,36 +3058,443 @@
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
-      <c r="AZ37" s="4"/>
-      <c r="BA37" s="4"/>
-      <c r="BB37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="1"/>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="4"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="1"/>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="4"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="3"/>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:AA2"/>
-    <mergeCell ref="AC2:AX2"/>
-    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="C2:AB2"/>
+    <mergeCell ref="AD2:AZ2"/>
+    <mergeCell ref="BB2:BD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC3D5A56AF9FD3438C43F319FCFDE2DC" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="964ba2a9cf15dd8b216821cf218a0037">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="28506e34-71d9-4c0b-96e6-6141a7ebebc4" xmlns:ns4="52ca37bf-416a-447f-bbd0-493d9f907224" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a850e3db238210a5957083a267be6f15" ns3:_="" ns4:_="">
     <xsd:import namespace="28506e34-71d9-4c0b-96e6-6141a7ebebc4"/>
@@ -3216,10 +3717,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160936A-CD33-4A15-9EAC-F463B655473B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05EFA89-79F4-4EAF-A475-D67EDECE30E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="28506e34-71d9-4c0b-96e6-6141a7ebebc4"/>
+    <ds:schemaRef ds:uri="52ca37bf-416a-447f-bbd0-493d9f907224"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3242,20 +3769,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05EFA89-79F4-4EAF-A475-D67EDECE30E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160936A-CD33-4A15-9EAC-F463B655473B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="28506e34-71d9-4c0b-96e6-6141a7ebebc4"/>
-    <ds:schemaRef ds:uri="52ca37bf-416a-447f-bbd0-493d9f907224"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>